--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 11/01. Báo giá bảo hành/BG_AnhTuanNB_041125.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 11/01. Báo giá bảo hành/BG_AnhTuanNB_041125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 11\01. Báo giá bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F1CB2-61B1-4858-B13F-9E8EC3D949D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE97D4E-6C2E-409C-8AD4-CEB694BEE1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -128,6 +128,9 @@
   <si>
     <t>Mô tả linh 
 kiện thay thế</t>
+  </si>
+  <si>
+    <t>PHIẾU BÁO GIÁ SỬA CHỮA</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -482,6 +485,30 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,30 +566,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,10 +938,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -952,81 +965,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="34" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="40" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="43" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:27" s="57" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1036,11 +1049,11 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1048,105 +1061,89 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="26">
-        <v>130000</v>
-      </c>
-      <c r="J10" s="26">
-        <f>SUM(H10*I10)</f>
-        <v>130000</v>
       </c>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="E11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="17" t="s">
         <v>8</v>
       </c>
@@ -1157,26 +1154,26 @@
         <v>130000</v>
       </c>
       <c r="J11" s="26">
-        <f t="shared" ref="J11:J13" si="0">SUM(H11*I11)</f>
+        <f>SUM(H11*I11)</f>
         <v>130000</v>
       </c>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1187,26 +1184,26 @@
         <v>130000</v>
       </c>
       <c r="J12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J12:J14" si="0">SUM(H12*I12)</f>
         <v>130000</v>
       </c>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>29</v>
+      <c r="C13" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="17" t="s">
         <v>8</v>
       </c>
@@ -1222,97 +1219,114 @@
       </c>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="26">
+        <v>130000</v>
+      </c>
+      <c r="J14" s="26">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="26">
-        <f>SUM(J10:J13)</f>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="26">
+        <f>SUM(J11:J14)</f>
         <v>520000</v>
       </c>
-      <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="8" t="s">
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="8" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="18" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="13" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,18 +1343,16 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,7 +1361,9 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1370,40 +1384,50 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="9" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="AA24" s="2"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F26" s="4"/>
+    <row r="26" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F27" s="4"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -1457,21 +1481,25 @@
     <row r="44" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA44" s="2"/>
     </row>
+    <row r="45" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA45" s="2"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="12">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E10:E13"/>
+  <mergeCells count="13">
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="E11:E14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="http://vnetgps.vn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
